--- a/src/test/java/com/christianlouboutin/testData/christianlouboutin.xlsx
+++ b/src/test/java/com/christianlouboutin/testData/christianlouboutin.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10614"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mbantajerry/Documents/Christian Louboutin/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4ADEF1F-2BD3-6447-9407-A0A15D50207B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="19900" windowHeight="11740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="19890" windowHeight="7560"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -22,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>UserEmail</t>
   </si>
@@ -103,34 +97,19 @@
   </si>
   <si>
     <t>Navy Louis Strass</t>
-  </si>
-  <si>
-    <t>FirstName 1</t>
-  </si>
-  <si>
-    <t>FirstName2</t>
-  </si>
-  <si>
-    <t>FirstName3</t>
-  </si>
-  <si>
-    <t>FirstName4</t>
-  </si>
-  <si>
-    <t>user2</t>
-  </si>
-  <si>
-    <t>user3</t>
-  </si>
-  <si>
-    <t>user4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -159,10 +138,154 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -171,12 +294,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
+        <fgColor theme="7" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -184,10 +493,249 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -198,20 +746,63 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -409,24 +1000,23 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="1" ht="12.75" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -434,60 +1024,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" customHeight="1" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1" outlineLevelCol="7"/>
   <cols>
-    <col min="3" max="3" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="18.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="1" ht="12.75" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -511,9 +1078,9 @@
       </c>
       <c r="H1" s="5"/>
     </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" customHeight="1" spans="1:7">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -531,106 +1098,35 @@
         <v>6000789</v>
       </c>
       <c r="G2">
-        <v>290009938</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3">
-        <v>6000789</v>
-      </c>
-      <c r="G3">
-        <v>290009938</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4">
-        <v>6000789</v>
-      </c>
-      <c r="G4">
-        <v>290009938</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5">
-        <v>6000789</v>
-      </c>
-      <c r="G5">
         <v>290009938</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{FD19599D-36F9-A241-B1E0-366E45C32BBD}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{70499034-CC2E-794B-851A-5E312C3A86E7}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{139682EF-E4AD-BA4F-998B-631E3368982D}"/>
+    <hyperlink ref="C2" r:id="rId1" display="mail@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView topLeftCell="D11" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="2" outlineLevelCol="4"/>
   <cols>
-    <col min="3" max="4" width="19.6640625" customWidth="1"/>
+    <col min="3" max="4" width="19.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+    <row r="1" ht="12.75" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -647,7 +1143,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+    <row r="2" ht="12.75" spans="1:5">
       <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
@@ -664,7 +1160,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" customHeight="1" spans="1:5">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -678,78 +1174,11 @@
         <v>26</v>
       </c>
       <c r="E3">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7">
         <v>39</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/test/java/com/christianlouboutin/testData/christianlouboutin.xlsx
+++ b/src/test/java/com/christianlouboutin/testData/christianlouboutin.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19890" windowHeight="7560"/>
+    <workbookView windowWidth="20490" windowHeight="7830" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="Registration" sheetId="2" r:id="rId2"/>
     <sheet name="Product details" sheetId="3" r:id="rId3"/>
+    <sheet name="Payment info" sheetId="5" r:id="rId4"/>
+    <sheet name="Draft" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="48">
   <si>
     <t>UserEmail</t>
   </si>
@@ -24,10 +26,10 @@
     <t>Password</t>
   </si>
   <si>
-    <t>user2344</t>
-  </si>
-  <si>
-    <t>Pass233</t>
+    <t>djegkos@gmail.com</t>
+  </si>
+  <si>
+    <t>Djeg1010!</t>
   </si>
   <si>
     <t>FirstName</t>
@@ -51,16 +53,22 @@
     <t>Telephone</t>
   </si>
   <si>
-    <t>LatsName</t>
+    <t>Test_FirstName</t>
+  </si>
+  <si>
+    <t>Test_LatsName</t>
   </si>
   <si>
     <t>mail@gmail.com</t>
   </si>
   <si>
-    <t>Paris, Xyz</t>
-  </si>
-  <si>
-    <t>paris</t>
+    <t>2, rue Jean Jacques</t>
+  </si>
+  <si>
+    <t>Paris</t>
+  </si>
+  <si>
+    <t>0612345678</t>
   </si>
   <si>
     <t>MainMenu</t>
@@ -72,24 +80,66 @@
     <t>ProductName/Id</t>
   </si>
   <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>Femme</t>
+  </si>
+  <si>
+    <t>So Kate</t>
+  </si>
+  <si>
+    <t>So Kate 120</t>
+  </si>
+  <si>
+    <t>Homme</t>
+  </si>
+  <si>
+    <t>Sneakers</t>
+  </si>
+  <si>
+    <t>Kiddo 000</t>
+  </si>
+  <si>
+    <t>Card ID</t>
+  </si>
+  <si>
+    <t>expiaryMonth</t>
+  </si>
+  <si>
+    <t>expiaryYear</t>
+  </si>
+  <si>
+    <t>CVV</t>
+  </si>
+  <si>
+    <t>CardHolderName</t>
+  </si>
+  <si>
+    <t>5136 3333 3333 3335</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>Jerry</t>
+  </si>
+  <si>
     <t>description</t>
   </si>
   <si>
-    <t>size</t>
-  </si>
-  <si>
-    <t>Femme</t>
-  </si>
-  <si>
     <t>Kate</t>
   </si>
   <si>
     <t>3191530P466</t>
   </si>
   <si>
-    <t>Homme</t>
-  </si>
-  <si>
     <t>Louis</t>
   </si>
   <si>
@@ -97,6 +147,21 @@
   </si>
   <si>
     <t>Navy Louis Strass</t>
+  </si>
+  <si>
+    <t>Greggo</t>
+  </si>
+  <si>
+    <t>3200429CMA3</t>
+  </si>
+  <si>
+    <t>Iriza</t>
+  </si>
+  <si>
+    <t>3160842BK01</t>
+  </si>
+  <si>
+    <t>3191417BL4G</t>
   </si>
 </sst>
 </file>
@@ -104,12 +169,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="26">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -128,6 +193,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Menlo"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF00B050"/>
       <name val="Arial"/>
@@ -138,6 +209,21 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -149,16 +235,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -186,6 +265,49 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -204,45 +326,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,36 +340,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -294,7 +373,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.4"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -306,181 +553,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,50 +564,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -553,17 +582,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -586,167 +633,200 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1010,11 +1090,14 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="14.5047619047619" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="17.6666666666667" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" ht="12.75" spans="1:2">
       <c r="A1" s="1" t="s">
@@ -1025,7 +1108,7 @@
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:2">
-      <c r="A2" t="s">
+      <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
@@ -1033,6 +1116,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="djegkos@gmail.com" tooltip="mailto:djegkos@gmail.com"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -1046,12 +1132,13 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="14.5047619047619" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1" outlineLevelCol="7"/>
   <cols>
-    <col min="3" max="3" width="18.5714285714286" customWidth="1"/>
+    <col min="3" max="3" width="18.5047619047619" customWidth="1"/>
+    <col min="4" max="4" width="20.1619047619048" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" spans="1:8">
@@ -1076,29 +1163,29 @@
       <c r="G1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="5"/>
+      <c r="H1" s="8"/>
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="6" t="s">
         <v>12</v>
       </c>
+      <c r="C2" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2">
-        <v>6000789</v>
-      </c>
-      <c r="G2">
-        <v>290009938</v>
+        <v>75001</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1115,70 +1202,264 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="A1:E1"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="14.5047619047619" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
-    <col min="3" max="4" width="19.7142857142857" customWidth="1"/>
+    <col min="3" max="4" width="18.8761904761905" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:5">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="6">
+        <v>34061</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:5">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3">
+        <v>26422</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:5">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4">
+        <v>34052</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="2" width="18.8285714285714" style="5" customWidth="1"/>
+    <col min="3" max="3" width="10.8285714285714" style="5"/>
+    <col min="5" max="5" width="15.5714285714286" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2">
+        <v>737</v>
+      </c>
+      <c r="E2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" outlineLevelCol="4"/>
+  <cols>
+    <col min="3" max="3" width="17.1619047619048" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" ht="12.75" spans="1:5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="E2">
         <v>35</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:5">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="E3">
         <v>39</v>
       </c>
     </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/src/test/java/com/christianlouboutin/testData/christianlouboutin.xlsx
+++ b/src/test/java/com/christianlouboutin/testData/christianlouboutin.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7830" activeTab="3"/>
+    <workbookView windowWidth="20490" windowHeight="7830" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="46">
   <si>
     <t>UserEmail</t>
   </si>
@@ -95,49 +95,43 @@
     <t>So Kate 120</t>
   </si>
   <si>
+    <t>Card ID</t>
+  </si>
+  <si>
+    <t>expiryMonth</t>
+  </si>
+  <si>
+    <t>expiryYear</t>
+  </si>
+  <si>
+    <t>CVV</t>
+  </si>
+  <si>
+    <t>CardHolderName</t>
+  </si>
+  <si>
+    <t>5136 3333 3333 3335</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>Jerry</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>Kate</t>
+  </si>
+  <si>
+    <t>3191530P466</t>
+  </si>
+  <si>
     <t>Homme</t>
-  </si>
-  <si>
-    <t>Sneakers</t>
-  </si>
-  <si>
-    <t>Kiddo 000</t>
-  </si>
-  <si>
-    <t>Card ID</t>
-  </si>
-  <si>
-    <t>expiaryMonth</t>
-  </si>
-  <si>
-    <t>expiaryYear</t>
-  </si>
-  <si>
-    <t>CVV</t>
-  </si>
-  <si>
-    <t>CardHolderName</t>
-  </si>
-  <si>
-    <t>5136 3333 3333 3335</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>Jerry</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>Kate</t>
-  </si>
-  <si>
-    <t>3191530P466</t>
   </si>
   <si>
     <t>Louis</t>
@@ -169,9 +163,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -222,22 +216,15 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,53 +253,62 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -326,7 +322,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -340,25 +336,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -379,181 +373,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -567,17 +561,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -587,15 +577,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -633,19 +614,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -667,152 +661,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -820,9 +814,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1"/>
@@ -1108,7 +1099,7 @@
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
@@ -1163,7 +1154,7 @@
       <c r="G1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="8"/>
+      <c r="H1" s="7"/>
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" t="s">
@@ -1172,7 +1163,7 @@
       <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D2" t="s">
@@ -1184,7 +1175,7 @@
       <c r="F2">
         <v>75001</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="10" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1202,13 +1193,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5047619047619" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="14.5047619047619" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="2" outlineLevelCol="4"/>
   <cols>
     <col min="3" max="4" width="18.8761904761905" customWidth="1"/>
   </cols>
@@ -1262,23 +1253,6 @@
       </c>
       <c r="E3">
         <v>35</v>
-      </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:5">
-      <c r="A4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4">
-        <v>34052</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1293,8 +1267,8 @@
   <sheetPr/>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="4"/>
@@ -1306,36 +1280,36 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="E1" t="s">
         <v>29</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D2">
         <v>737</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1369,7 +1343,7 @@
         <v>19</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>21</v>
@@ -1380,13 +1354,13 @@
         <v>22</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E2">
         <v>35</v>
@@ -1394,16 +1368,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s">
         <v>40</v>
-      </c>
-      <c r="C3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" t="s">
-        <v>42</v>
       </c>
       <c r="E3">
         <v>39</v>
@@ -1411,16 +1385,16 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E6">
         <v>42</v>
@@ -1431,13 +1405,13 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E7">
         <v>37</v>
@@ -1448,10 +1422,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D11">
         <v>37</v>

--- a/src/test/java/com/christianlouboutin/testData/christianlouboutin.xlsx
+++ b/src/test/java/com/christianlouboutin/testData/christianlouboutin.xlsx
@@ -165,8 +165,8 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -216,6 +216,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Arial"/>
       <charset val="0"/>
@@ -253,7 +267,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,54 +275,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -322,7 +291,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -337,14 +329,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -373,13 +373,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,13 +427,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,7 +517,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,133 +535,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -577,6 +577,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -611,11 +620,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -623,8 +638,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -643,166 +658,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1196,7 +1196,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5047619047619" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="2" outlineLevelCol="4"/>
@@ -1235,7 +1235,7 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
